--- a/Assets/__Project/Excel/ConstantTable/GachaCost.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/GachaCost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D1DE29-CAF0-40F3-9797-897CB913D37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D21661-3D4E-4574-ADFC-FB34766135B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="29985" yWindow="3720" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +55,10 @@
   </si>
   <si>
     <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costItems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +450,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -476,10 +476,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -487,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -498,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
